--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="758">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -4859,6 +4859,48 @@
   </si>
   <si>
     <t>ても。。。。</t>
+  </si>
+  <si>
+    <t>もっと</t>
+  </si>
+  <si>
+    <t>hơn</t>
+  </si>
+  <si>
+    <t>きっと</t>
+  </si>
+  <si>
+    <t>ずっと</t>
+  </si>
+  <si>
+    <t>suốt, hơn</t>
+  </si>
+  <si>
+    <t>うるさい</t>
+  </si>
+  <si>
+    <t>tiếng ồn</t>
+  </si>
+  <si>
+    <t>ồn ào</t>
+  </si>
+  <si>
+    <t>そうおん</t>
+  </si>
+  <si>
+    <t>おかしい</t>
+  </si>
+  <si>
+    <t>kỳ lạ</t>
+  </si>
+  <si>
+    <t>かならず</t>
+  </si>
+  <si>
+    <t>ぜったいに</t>
+  </si>
+  <si>
+    <t>tuyết đối</t>
   </si>
 </sst>
 </file>
@@ -5084,7 +5126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5139,6 +5181,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5167,7 +5221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5295,6 +5349,8 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6298,17 +6354,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7774,10 +7830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:M38"/>
+  <dimension ref="B3:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7791,181 +7847,317 @@
     <col min="7" max="7" width="2" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="B2" t="s">
+    <row r="3" spans="2:13">
+      <c r="B3" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>734</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
+        <v>738</v>
+      </c>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="58" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="42" t="s">
+        <v>740</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B24" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" t="s">
+        <v>733</v>
+      </c>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" t="s">
+        <v>372</v>
+      </c>
+      <c r="G34"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E36" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="14.25" customHeight="1">
-      <c r="B23" t="s">
-        <v>732</v>
-      </c>
-      <c r="E23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>735</v>
-      </c>
-      <c r="C25" t="s">
-        <v>734</v>
-      </c>
-      <c r="E25" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>736</v>
-      </c>
-      <c r="C26" t="s">
-        <v>737</v>
-      </c>
-      <c r="E26" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>740</v>
-      </c>
-      <c r="C29" t="s">
-        <v>742</v>
-      </c>
-      <c r="E29" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1"/>
+      <c r="G36"/>
+    </row>
+    <row r="38" spans="2:7" ht="14.25" customHeight="1">
+      <c r="G38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8806,8 +8998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="KANJI" sheetId="13" r:id="rId12"/>
     <sheet name="all_Kanji" sheetId="14" r:id="rId13"/>
     <sheet name="ghepkanji2" sheetId="15" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId15"/>
+    <sheet name="gioi tu" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -361,7 +361,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="761">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -4819,10 +4819,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>と部</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ところで</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -4901,6 +4897,18 @@
   </si>
   <si>
     <t>tuyết đối</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <t>守ります</t>
+  </si>
+  <si>
+    <t>まもります</t>
+  </si>
+  <si>
+    <t>Bảo vệ, tuân thủ</t>
   </si>
 </sst>
 </file>
@@ -5334,6 +5342,8 @@
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5349,8 +5359,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5772,11 +5780,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="18"/>
       <c r="F1" s="21"/>
       <c r="M1" s="33"/>
@@ -5868,11 +5876,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
       <c r="M8" s="33"/>
@@ -5970,11 +5978,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="M18" s="33"/>
@@ -6031,11 +6039,11 @@
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="M24" s="33"/>
@@ -6058,11 +6066,11 @@
       </c>
     </row>
     <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="M27" s="33"/>
@@ -6082,11 +6090,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="M30" s="33"/>
@@ -6154,11 +6162,11 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="M36" s="33"/>
@@ -6178,11 +6186,11 @@
       </c>
     </row>
     <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
       <c r="M41" s="33"/>
@@ -6267,11 +6275,11 @@
       </c>
     </row>
     <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
       <c r="E54" s="18"/>
       <c r="F54" s="21"/>
       <c r="M54" s="33"/>
@@ -6291,11 +6299,11 @@
       </c>
     </row>
     <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="18"/>
       <c r="F58" s="21"/>
       <c r="M58" s="33"/>
@@ -6315,11 +6323,11 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="18"/>
       <c r="F62" s="21"/>
       <c r="M62" s="33"/>
@@ -6354,17 +6362,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6396,22 +6404,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7809,22 +7817,36 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3"/>
+  <dimension ref="B3:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="11"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>731</v>
+    <row r="3" spans="2:8">
+      <c r="B3" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E3" t="s">
+        <v>759</v>
+      </c>
+      <c r="H3" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7832,7 +7854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -7903,56 +7925,56 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="52"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="39" t="s">
@@ -7981,47 +8003,47 @@
       <c r="F13" s="39"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="53" t="s">
+        <v>734</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>734</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58" t="s">
+      <c r="C17" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53" t="s">
         <v>738</v>
       </c>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="58" t="s">
-        <v>736</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>737</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58" t="s">
-        <v>739</v>
-      </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F20" s="42"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
@@ -8030,34 +8052,34 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F23" s="42"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F24" s="42"/>
     </row>
@@ -8070,34 +8092,34 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F26" s="42"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F28" s="39"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F29" s="39"/>
     </row>
@@ -8118,22 +8140,22 @@
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
+        <v>731</v>
+      </c>
+      <c r="E33" t="s">
         <v>732</v>
-      </c>
-      <c r="E33" t="s">
-        <v>733</v>
       </c>
       <c r="G33"/>
     </row>
@@ -8200,11 +8222,11 @@
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
@@ -9010,21 +9032,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
@@ -9047,13 +9069,13 @@
       <c r="F5" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
@@ -9062,11 +9084,11 @@
       <c r="F6" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
@@ -9128,7 +9150,7 @@
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,58 @@
     <sheet name="漢字" sheetId="4" r:id="rId4"/>
     <sheet name="ghep漢字" sheetId="6" r:id="rId5"/>
     <sheet name="漢字2" sheetId="5" r:id="rId6"/>
-    <sheet name="言葉２" sheetId="7" r:id="rId7"/>
-    <sheet name="文法" sheetId="9" r:id="rId8"/>
-    <sheet name="nhom II" sheetId="10" r:id="rId9"/>
-    <sheet name="Tha dong tu" sheetId="11" r:id="rId10"/>
-    <sheet name="Linh tinh" sheetId="12" r:id="rId11"/>
-    <sheet name="KANJI" sheetId="13" r:id="rId12"/>
-    <sheet name="all_Kanji" sheetId="14" r:id="rId13"/>
-    <sheet name="ghepkanji2" sheetId="15" r:id="rId14"/>
-    <sheet name="gioi tu" sheetId="16" r:id="rId15"/>
+    <sheet name="文法" sheetId="9" r:id="rId7"/>
+    <sheet name="nhom II" sheetId="10" r:id="rId8"/>
+    <sheet name="Tha dong tu" sheetId="11" r:id="rId9"/>
+    <sheet name="Linh tinh" sheetId="12" r:id="rId10"/>
+    <sheet name="KANJI" sheetId="13" r:id="rId11"/>
+    <sheet name="all_Kanji" sheetId="14" r:id="rId12"/>
+    <sheet name="ghepkanji2" sheetId="15" r:id="rId13"/>
+    <sheet name="gioi tu" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>cách nói lịch sự của
+どうですか。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Vẫn chưa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -87,7 +124,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -111,7 +148,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -165,7 +202,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
@@ -361,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="803">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -966,10 +1003,6 @@
   </si>
   <si>
     <t>こころ</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>trái tim</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -4812,103 +4845,269 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
+    <t>ところで</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>nhân tiện đây</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>用事</t>
+  </si>
+  <si>
+    <t>ようじ</t>
+  </si>
+  <si>
+    <t>よじ</t>
+  </si>
+  <si>
+    <t>４時（四時）</t>
+  </si>
+  <si>
+    <t>công chuyện</t>
+  </si>
+  <si>
+    <t>4 giờ</t>
+  </si>
+  <si>
+    <t>たしか</t>
+  </si>
+  <si>
+    <t>chắc chắn là</t>
+  </si>
+  <si>
+    <t>確か</t>
+  </si>
+  <si>
+    <t>ても。。。。</t>
+  </si>
+  <si>
+    <t>もっと</t>
+  </si>
+  <si>
+    <t>hơn</t>
+  </si>
+  <si>
+    <t>きっと</t>
+  </si>
+  <si>
+    <t>ずっと</t>
+  </si>
+  <si>
+    <t>suốt, hơn</t>
+  </si>
+  <si>
+    <t>うるさい</t>
+  </si>
+  <si>
+    <t>tiếng ồn</t>
+  </si>
+  <si>
+    <t>ồn ào</t>
+  </si>
+  <si>
+    <t>そうおん</t>
+  </si>
+  <si>
+    <t>おかしい</t>
+  </si>
+  <si>
+    <t>kỳ lạ</t>
+  </si>
+  <si>
+    <t>かならず</t>
+  </si>
+  <si>
+    <t>ぜったいに</t>
+  </si>
+  <si>
+    <t>tuyết đối</t>
+  </si>
+  <si>
+    <t>を</t>
+  </si>
+  <si>
+    <t>守ります</t>
+  </si>
+  <si>
+    <t>まもります</t>
+  </si>
+  <si>
+    <t>Bảo vệ, tuân thủ</t>
+  </si>
+  <si>
     <t>時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ところで</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>nhân tiện đây</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>用事</t>
-  </si>
-  <si>
-    <t>ようじ</t>
-  </si>
-  <si>
-    <t>よじ</t>
-  </si>
-  <si>
-    <t>４時（四時）</t>
-  </si>
-  <si>
-    <t>công chuyện</t>
-  </si>
-  <si>
-    <t>4 giờ</t>
-  </si>
-  <si>
-    <t>たしか</t>
-  </si>
-  <si>
-    <t>chắc chắn là</t>
-  </si>
-  <si>
-    <t>確か</t>
-  </si>
-  <si>
-    <t>ても。。。。</t>
-  </si>
-  <si>
-    <t>もっと</t>
-  </si>
-  <si>
-    <t>hơn</t>
-  </si>
-  <si>
-    <t>きっと</t>
-  </si>
-  <si>
-    <t>ずっと</t>
-  </si>
-  <si>
-    <t>suốt, hơn</t>
-  </si>
-  <si>
-    <t>うるさい</t>
-  </si>
-  <si>
-    <t>tiếng ồn</t>
-  </si>
-  <si>
-    <t>ồn ào</t>
-  </si>
-  <si>
-    <t>そうおん</t>
-  </si>
-  <si>
-    <t>おかしい</t>
-  </si>
-  <si>
-    <t>kỳ lạ</t>
-  </si>
-  <si>
-    <t>かならず</t>
-  </si>
-  <si>
-    <t>ぜったいに</t>
-  </si>
-  <si>
-    <t>tuyết đối</t>
-  </si>
-  <si>
-    <t>を</t>
-  </si>
-  <si>
-    <t>守ります</t>
-  </si>
-  <si>
-    <t>まもります</t>
-  </si>
-  <si>
-    <t>Bảo vệ, tuân thủ</t>
+  </si>
+  <si>
+    <t>大変</t>
+  </si>
+  <si>
+    <t>trái tim</t>
+  </si>
+  <si>
+    <t>さがします</t>
+  </si>
+  <si>
+    <t>tìm</t>
+  </si>
+  <si>
+    <t>tìm thấy</t>
+  </si>
+  <si>
+    <t>チェックします</t>
+  </si>
+  <si>
+    <t>kiểm tra lại</t>
+  </si>
+  <si>
+    <t>中身</t>
+  </si>
+  <si>
+    <t>なかみ</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>さっき</t>
+  </si>
+  <si>
+    <t>Hồi nãy, lúc nãy</t>
+  </si>
+  <si>
+    <t>うかがいます。</t>
+  </si>
+  <si>
+    <t>tôi đến thăm</t>
+  </si>
+  <si>
+    <t>伺います</t>
+  </si>
+  <si>
+    <t>（Cách nói khiêm nhường của いきます）</t>
+  </si>
+  <si>
+    <t>いかがですか。</t>
+  </si>
+  <si>
+    <t>もう　いっぱい　いかがですか。</t>
+  </si>
+  <si>
+    <t>thêm 1 ly nhé</t>
+  </si>
+  <si>
+    <t>được không ? (thấy thế nào)</t>
+  </si>
+  <si>
+    <t>コーヒーは　いかがですか。</t>
+  </si>
+  <si>
+    <t>café nhé</t>
+  </si>
+  <si>
+    <t>しかし</t>
+  </si>
+  <si>
+    <t>nhưng</t>
+  </si>
+  <si>
+    <t>どうでしょうか</t>
+  </si>
+  <si>
+    <t>thế nào?</t>
+  </si>
+  <si>
+    <t>考えます</t>
+  </si>
+  <si>
+    <t>かんが</t>
+  </si>
+  <si>
+    <t>えます</t>
+  </si>
+  <si>
+    <t>suy nghĩ</t>
+  </si>
+  <si>
+    <t>KHẢO</t>
+  </si>
+  <si>
+    <t>おもて</t>
+  </si>
+  <si>
+    <t>うら</t>
+  </si>
+  <si>
+    <t>phía trước, mặt trước</t>
+  </si>
+  <si>
+    <t>phía sau, mặt sau</t>
+  </si>
+  <si>
+    <t>表 - BiỂU</t>
+  </si>
+  <si>
+    <t>裏 - LÍ</t>
+  </si>
+  <si>
+    <t>返事</t>
+  </si>
+  <si>
+    <t>へん</t>
+  </si>
+  <si>
+    <t>PHẢN SỰ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>て　いません。</t>
+    </r>
+  </si>
+  <si>
+    <t>vẫn chưa</t>
+  </si>
+  <si>
+    <t>まだ</t>
   </si>
 </sst>
 </file>
@@ -5229,7 +5428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5359,6 +5558,10 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5703,7 +5906,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5719,7 +5922,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
@@ -5730,7 +5933,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
@@ -5738,15 +5941,15 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5758,634 +5961,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:M64"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="10" max="10" width="1.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="21"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="H4" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" t="s">
-        <v>302</v>
-      </c>
-      <c r="I5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="21"/>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" t="s">
-        <v>262</v>
-      </c>
-      <c r="I13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="H15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="21"/>
-      <c r="M18" s="33"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
-    <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="21"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" t="s">
-        <v>231</v>
-      </c>
-      <c r="I25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="21"/>
-      <c r="M27" s="33"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>312</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="H28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="21"/>
-      <c r="M30" s="33"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="H31" t="s">
-        <v>207</v>
-      </c>
-      <c r="I31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" t="s">
-        <v>294</v>
-      </c>
-      <c r="I33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="H34" t="s">
-        <v>276</v>
-      </c>
-      <c r="I34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="21"/>
-      <c r="M36" s="33"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="H37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="21"/>
-      <c r="M41" s="33"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B44" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="21"/>
-      <c r="K44" s="33"/>
-      <c r="M44" s="33"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H46" t="s">
-        <v>256</v>
-      </c>
-      <c r="I46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="21"/>
-      <c r="K48" s="33"/>
-      <c r="M48" s="33"/>
-    </row>
-    <row r="49" spans="2:13" ht="13.5" customHeight="1"/>
-    <row r="50" spans="2:13">
-      <c r="B50" t="s">
-        <v>285</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="H50" t="s">
-        <v>287</v>
-      </c>
-      <c r="I50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" t="s">
-        <v>289</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H51" t="s">
-        <v>291</v>
-      </c>
-      <c r="I51" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="21"/>
-      <c r="M54" s="33"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" t="s">
-        <v>254</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="H56" t="s">
-        <v>259</v>
-      </c>
-      <c r="I56" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="21"/>
-      <c r="M58" s="33"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" t="s">
-        <v>265</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="H60" t="s">
-        <v>267</v>
-      </c>
-      <c r="I60" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="21"/>
-      <c r="M62" s="33"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" t="s">
-        <v>310</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="H63" t="s">
-        <v>279</v>
-      </c>
-      <c r="I63" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13">
-      <c r="B64" t="s">
-        <v>308</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="H64" t="s">
-        <v>306</v>
-      </c>
-      <c r="I64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-  </mergeCells>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6405,7 +5984,7 @@
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
       <c r="J1" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
@@ -6414,7 +5993,7 @@
       <c r="O1" s="58"/>
       <c r="P1" s="38"/>
       <c r="Q1" s="58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R1" s="58"/>
       <c r="S1" s="58"/>
@@ -6423,71 +6002,76 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
         <v>377</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>378</v>
-      </c>
-      <c r="G2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="K3" t="s">
+        <v>399</v>
+      </c>
+      <c r="M3" t="s">
         <v>400</v>
       </c>
-      <c r="M3" t="s">
-        <v>401</v>
-      </c>
       <c r="O3" t="s">
+        <v>405</v>
+      </c>
+      <c r="R3" t="s">
+        <v>403</v>
+      </c>
+      <c r="S3" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" t="s">
         <v>406</v>
-      </c>
-      <c r="R3" t="s">
-        <v>404</v>
-      </c>
-      <c r="S3" t="s">
-        <v>405</v>
-      </c>
-      <c r="U3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" t="s">
         <v>380</v>
       </c>
-      <c r="C4" t="s">
-        <v>381</v>
-      </c>
       <c r="R4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U4" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="R5" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
         <v>410</v>
-      </c>
-      <c r="C6" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C9" t="s">
         <v>619</v>
-      </c>
-      <c r="C9" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I16" s="35"/>
       <c r="P16" s="35"/>
@@ -6503,11 +6087,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:C23"/>
     </sheetView>
   </sheetViews>
@@ -6525,232 +6109,232 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" t="s">
         <v>412</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>413</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>416</v>
-      </c>
       <c r="N2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="43"/>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" t="s">
         <v>417</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="H3" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>420</v>
-      </c>
       <c r="N3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="43"/>
       <c r="C4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F4" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" t="s">
         <v>413</v>
       </c>
-      <c r="G4" t="s">
-        <v>414</v>
-      </c>
       <c r="N4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="43"/>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F5" t="s">
         <v>422</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>424</v>
-      </c>
       <c r="N5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="43"/>
       <c r="C6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F6" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" t="s">
         <v>436</v>
       </c>
-      <c r="G6" t="s">
-        <v>437</v>
-      </c>
       <c r="N6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="43"/>
       <c r="C7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P7" t="s">
         <v>538</v>
-      </c>
-      <c r="P7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="43"/>
       <c r="C8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="43"/>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F9" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" t="s">
         <v>440</v>
-      </c>
-      <c r="G9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="43"/>
       <c r="C10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="43"/>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" t="s">
         <v>443</v>
       </c>
-      <c r="G11" t="s">
-        <v>444</v>
-      </c>
       <c r="H11" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -6758,250 +6342,250 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" t="s">
         <v>493</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="41" t="s">
         <v>494</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="45"/>
       <c r="I14" s="41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="45"/>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G15" t="s">
+        <v>496</v>
+      </c>
+      <c r="H15" t="s">
         <v>497</v>
-      </c>
-      <c r="H15" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="45"/>
       <c r="C16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="45"/>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="45"/>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G18" t="s">
+        <v>502</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>503</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="45"/>
       <c r="C19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>505</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="I19" t="s">
+        <v>507</v>
+      </c>
+      <c r="J19" s="41" t="s">
         <v>506</v>
-      </c>
-      <c r="I19" t="s">
-        <v>508</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="45"/>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="45"/>
       <c r="C21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G21" t="s">
+        <v>509</v>
+      </c>
+      <c r="H21" t="s">
         <v>510</v>
-      </c>
-      <c r="H21" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="45"/>
       <c r="C22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G22" t="s">
+        <v>511</v>
+      </c>
+      <c r="H22" t="s">
         <v>512</v>
-      </c>
-      <c r="H22" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="45"/>
       <c r="C23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G23" t="s">
+        <v>513</v>
+      </c>
+      <c r="H23" s="41" t="s">
         <v>514</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="45"/>
       <c r="C24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="45"/>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F25" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="45"/>
       <c r="C26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="45"/>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F27" t="s">
+        <v>516</v>
+      </c>
+      <c r="G27" t="s">
         <v>517</v>
-      </c>
-      <c r="G27" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7012,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:U26"/>
   <sheetViews>
@@ -7089,701 +6673,701 @@
     </row>
     <row r="5" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B5" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R5" s="47" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T5" s="47" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="U5" s="47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B6" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L6" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R6" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B7" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N7" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P7" s="47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R7" s="47" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S7" s="47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B8" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P8" s="47" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R8" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S8" s="47" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T8" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B9" s="47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G9" s="49"/>
       <c r="H9" s="47" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I9" s="49"/>
       <c r="J9" s="47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R9" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="21" customHeight="1">
       <c r="B10" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R10" s="46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S10" s="46" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="T10" s="46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U10" s="46" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="21" customHeight="1">
       <c r="C11" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S11" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B14" s="47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R14" s="47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S14" s="47" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="T14" s="47" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="U14" s="47" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B15" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O15" s="47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R15" s="47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="T15" s="47" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="U15" s="47" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B16" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O16" s="47" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R16" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="S16" s="47" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="T16" s="47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U16" s="47" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B17" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O17" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R17" s="47" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T17" s="47" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U17" s="47" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="2:21" s="47" customFormat="1" ht="21" customHeight="1">
       <c r="B18" s="49"/>
       <c r="C18" s="47" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I18" s="49"/>
       <c r="J18" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O18" s="47" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="S18" s="47" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="T18" s="49"/>
       <c r="U18" s="47" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="2:21" ht="21" customHeight="1">
       <c r="C19" s="46" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O19" s="46" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P19" s="46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="21" customHeight="1">
       <c r="C20" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="2:21" s="51" customFormat="1" ht="10.5" customHeight="1"/>
     <row r="26" spans="2:21" ht="21" customHeight="1">
       <c r="B26" s="47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -7794,7 +7378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2"/>
   <sheetViews>
@@ -7806,7 +7390,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>730</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -7815,12 +7399,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7831,16 +7415,16 @@
   <sheetData>
     <row r="3" spans="2:8">
       <c r="B3" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E3" t="s">
         <v>757</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>758</v>
-      </c>
-      <c r="E3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H3" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -7852,39 +7436,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M38"/>
+  <dimension ref="B3:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="2" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13">
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
         <v>51</v>
@@ -7892,36 +7477,36 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>179</v>
-      </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>784</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -7929,20 +7514,26 @@
         <v>55</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="52"/>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="52" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
@@ -7955,7 +7546,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="52" t="s">
@@ -7965,7 +7556,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>61</v>
@@ -7978,212 +7569,362 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>331</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>332</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F13" s="39"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="53" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:6">
       <c r="B17" s="53" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F17" s="53"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:6">
       <c r="B20" s="42" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>739</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>741</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F20" s="42"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:6">
       <c r="B21" s="42" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:6">
       <c r="B22" s="42" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F22" s="42"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:6">
       <c r="B23" s="42" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
       <c r="B24" s="42" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:6">
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:6">
       <c r="B26" s="42" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="F26" s="42"/>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39" t="s">
-        <v>749</v>
-      </c>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="39"/>
+    <row r="27" spans="2:6">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="39" t="s">
+        <v>746</v>
+      </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
+      <c r="E30" s="39" t="s">
+        <v>748</v>
+      </c>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30" t="s">
-        <v>753</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
-        <v>731</v>
-      </c>
-      <c r="E33" t="s">
-        <v>732</v>
-      </c>
-      <c r="G33"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
-        <v>368</v>
-      </c>
-      <c r="E34" t="s">
-        <v>372</v>
-      </c>
-      <c r="G34"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B40" t="s">
+        <v>729</v>
+      </c>
+      <c r="E40" t="s">
+        <v>730</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="42" spans="2:13" s="60" customFormat="1">
+      <c r="B42" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" s="60" customFormat="1">
+      <c r="B43" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" t="s">
         <v>54</v>
       </c>
-      <c r="G36"/>
-    </row>
-    <row r="38" spans="2:7" ht="14.25" customHeight="1">
-      <c r="G38"/>
+    </row>
+    <row r="47" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B47" t="s">
+        <v>762</v>
+      </c>
+      <c r="E47" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>765</v>
+      </c>
+      <c r="E50" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>767</v>
+      </c>
+      <c r="C54" t="s">
+        <v>768</v>
+      </c>
+      <c r="E54" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>772</v>
+      </c>
+      <c r="C56" t="s">
+        <v>774</v>
+      </c>
+      <c r="E56" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="E57" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>791</v>
+      </c>
+      <c r="C59" t="s">
+        <v>795</v>
+      </c>
+      <c r="E59" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>792</v>
+      </c>
+      <c r="C60" t="s">
+        <v>796</v>
+      </c>
+      <c r="E60" t="s">
+        <v>794</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8216,7 +7957,7 @@
   <sheetData>
     <row r="1" spans="2:12" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="B1" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="28"/>
       <c r="E1" s="22"/>
@@ -8296,7 +8037,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1">
@@ -8317,10 +8058,10 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1">
@@ -8331,13 +8072,13 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K15" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L15" t="s">
         <v>368</v>
-      </c>
-      <c r="L15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1">
@@ -8353,7 +8094,7 @@
         <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="24.95" customHeight="1">
@@ -8361,7 +8102,7 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="24.95" customHeight="1">
@@ -8372,7 +8113,7 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="24.95" customHeight="1">
@@ -8390,7 +8131,7 @@
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="24.95" customHeight="1">
@@ -8401,13 +8142,13 @@
         <v>33</v>
       </c>
       <c r="H23" t="s">
+        <v>381</v>
+      </c>
+      <c r="K23" t="s">
         <v>382</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>383</v>
-      </c>
-      <c r="L23" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="24.95" customHeight="1">
@@ -8415,7 +8156,7 @@
         <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="2:12" ht="24.95" customHeight="1">
@@ -8426,10 +8167,10 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="2:12" ht="24.95" customHeight="1">
@@ -8439,7 +8180,7 @@
     </row>
     <row r="28" spans="2:12" s="9" customFormat="1" ht="24.95" customHeight="1">
       <c r="B28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="28"/>
       <c r="E28" s="22"/>
@@ -8449,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
@@ -8465,10 +8206,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="24.95" customHeight="1">
@@ -8476,7 +8217,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="24.95" customHeight="1">
@@ -8484,10 +8225,10 @@
         <v>3</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="24.95" customHeight="1">
@@ -8495,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H35" s="23"/>
     </row>
@@ -8507,26 +8248,26 @@
         <v>1</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1">
       <c r="E38" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="24.95" customHeight="1">
       <c r="E39" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="H39" t="s">
         <v>356</v>
-      </c>
-      <c r="H39" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="24.95" customHeight="1">
@@ -8534,20 +8275,20 @@
         <v>2</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="24.95" customHeight="1">
       <c r="E41" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="24.95" customHeight="1">
       <c r="E42" s="23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="24.95" customHeight="1">
@@ -8555,15 +8296,15 @@
         <v>3</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="24.95" customHeight="1">
       <c r="E44" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="H44" t="s">
         <v>359</v>
-      </c>
-      <c r="H44" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="24.95" customHeight="1">
@@ -8571,17 +8312,17 @@
         <v>4</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="24.95" customHeight="1">
       <c r="E46" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="24.95" customHeight="1">
       <c r="E47" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="24.95" customHeight="1">
@@ -8589,23 +8330,23 @@
         <v>5</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="24.95" customHeight="1">
       <c r="E49" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="24.95" customHeight="1">
       <c r="E50" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="24.95" customHeight="1">
@@ -8613,26 +8354,26 @@
         <v>6</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="24.95" customHeight="1">
       <c r="E52" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="24.95" customHeight="1">
       <c r="E53" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8671,88 +8412,88 @@
     <row r="5" spans="1:14">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
       <c r="N11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -8763,10 +8504,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -8776,7 +8517,7 @@
     <col min="6" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -8787,7 +8528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
+    <row r="3" spans="1:9" ht="24.95" customHeight="1">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -8798,7 +8539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -8809,120 +8550,151 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+    <row r="5" spans="1:9" ht="24.95" customHeight="1">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>84</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.95" customHeight="1">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1">
       <c r="A12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1">
       <c r="A13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" t="s">
         <v>349</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>350</v>
       </c>
-      <c r="D13" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>390</v>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C15" t="s">
+        <v>787</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H15" t="s">
+        <v>790</v>
+      </c>
+      <c r="I15" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A16" t="s">
+        <v>797</v>
+      </c>
+      <c r="C16" t="s">
+        <v>798</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -8950,7 +8722,7 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -8958,32 +8730,32 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K4" t="s">
         <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -8994,51 +8766,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:O2"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:15">
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
       <c r="D1" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
@@ -9048,41 +8801,49 @@
       <c r="J1" s="55"/>
       <c r="K1" s="55"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1">
+      <c r="O4" t="s">
+        <v>800</v>
+      </c>
+      <c r="R4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
         <v>137</v>
       </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
       <c r="H5" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -9090,12 +8851,12 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -9103,54 +8864,54 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="14" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="15" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="14"/>
       <c r="D15" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -9165,7 +8926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D11"/>
   <sheetViews>
@@ -9177,98 +8938,98 @@
   <sheetData>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9276,4 +9037,628 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:M64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B1" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="21"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" t="s">
+        <v>296</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B8" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="21"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B18" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B24" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B27" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" t="s">
+        <v>314</v>
+      </c>
+      <c r="I28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" t="s">
+        <v>293</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" t="s">
+        <v>275</v>
+      </c>
+      <c r="I34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="21"/>
+      <c r="M36" s="33"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="21"/>
+      <c r="M41" s="33"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="21"/>
+      <c r="K44" s="33"/>
+      <c r="M44" s="33"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" t="s">
+        <v>254</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="21"/>
+      <c r="K48" s="33"/>
+      <c r="M48" s="33"/>
+    </row>
+    <row r="49" spans="2:13" ht="13.5" customHeight="1"/>
+    <row r="50" spans="2:13">
+      <c r="B50" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" t="s">
+        <v>286</v>
+      </c>
+      <c r="I50" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="H51" t="s">
+        <v>290</v>
+      </c>
+      <c r="I51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B54" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="21"/>
+      <c r="M54" s="33"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" t="s">
+        <v>253</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="H56" t="s">
+        <v>258</v>
+      </c>
+      <c r="I56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B58" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="21"/>
+      <c r="M58" s="33"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" t="s">
+        <v>266</v>
+      </c>
+      <c r="I60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
+      <c r="B62" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="21"/>
+      <c r="M62" s="33"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" t="s">
+        <v>278</v>
+      </c>
+      <c r="I63" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+      <c r="I64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="809">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5108,6 +5108,24 @@
   </si>
   <si>
     <t>まだ</t>
+  </si>
+  <si>
+    <t>たいへん</t>
+  </si>
+  <si>
+    <t>vất vả</t>
+  </si>
+  <si>
+    <t>大変-ĐẠI BiẾN</t>
+  </si>
+  <si>
+    <t>trạng thái, tình hình</t>
+  </si>
+  <si>
+    <t>ようす</t>
+  </si>
+  <si>
+    <t>様子-DẠNG TỬ</t>
   </si>
 </sst>
 </file>
@@ -5543,6 +5561,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5558,10 +5580,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5983,22 +6001,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="60" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7436,17 +7454,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M60"/>
+  <dimension ref="B3:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.140625" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
@@ -7619,305 +7637,329 @@
       </c>
       <c r="F17" s="53"/>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="F20" s="42"/>
+    <row r="18" spans="2:6">
+      <c r="B18" s="53" t="s">
+        <v>807</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>808</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53" t="s">
+        <v>806</v>
+      </c>
+      <c r="F18" s="53"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="C21" s="42"/>
+        <v>737</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>739</v>
+      </c>
       <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="E21" s="42" t="s">
+        <v>738</v>
+      </c>
       <c r="F21" s="42"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="42" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="42" t="s">
-        <v>738</v>
-      </c>
+      <c r="E22" s="42"/>
       <c r="F22" s="42"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="F23" s="42"/>
     </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+    <row r="24" spans="2:6">
       <c r="B24" s="42" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
       <c r="E24" s="42" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="F24" s="42"/>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="42"/>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B25" s="42" t="s">
+        <v>741</v>
+      </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="E25" s="42" t="s">
+        <v>742</v>
+      </c>
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="42" t="s">
-        <v>770</v>
-      </c>
+      <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
-      <c r="E26" s="42" t="s">
-        <v>771</v>
-      </c>
+      <c r="E26" s="42"/>
       <c r="F26" s="42"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="42"/>
+      <c r="B27" s="42" t="s">
+        <v>770</v>
+      </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="E27" s="42" t="s">
+        <v>771</v>
+      </c>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="42" t="s">
-        <v>744</v>
-      </c>
+      <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="39" t="s">
-        <v>746</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="F30" s="39"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="39" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="39"/>
+      <c r="B32" s="39" t="s">
+        <v>749</v>
+      </c>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="39" t="s">
+        <v>747</v>
+      </c>
       <c r="F32" s="39"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="F34" s="13"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="13" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="30" t="s">
-        <v>750</v>
-      </c>
+      <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="30" t="s">
-        <v>751</v>
-      </c>
+      <c r="E38" s="30"/>
       <c r="F38" s="30"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="30" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
         <v>783</v>
       </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B40" t="s">
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B41" t="s">
         <v>729</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>730</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I41" t="s">
         <v>71</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M41" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1"/>
-    <row r="42" spans="2:13" s="60" customFormat="1">
-      <c r="B42" s="60" t="s">
+    <row r="42" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="43" spans="2:13" s="55" customFormat="1">
+      <c r="B43" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E43" s="55" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="2:13" s="60" customFormat="1">
-      <c r="B43" s="60" t="s">
+    <row r="44" spans="2:13" s="55" customFormat="1">
+      <c r="B44" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E44" s="55" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
-      <c r="B45" t="s">
+    <row r="46" spans="2:13">
+      <c r="B46" t="s">
         <v>169</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B47" t="s">
+    <row r="48" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B48" t="s">
         <v>762</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
-      <c r="B48" t="s">
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
         <v>277</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
-      <c r="B50" t="s">
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
         <v>765</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="B54" t="s">
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
         <v>767</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>768</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>772</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>774</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
-      <c r="E57" t="s">
+    <row r="58" spans="2:5">
+      <c r="E58" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" t="s">
-        <v>791</v>
-      </c>
-      <c r="C59" t="s">
-        <v>795</v>
-      </c>
-      <c r="E59" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
+        <v>791</v>
+      </c>
+      <c r="C60" t="s">
+        <v>795</v>
+      </c>
+      <c r="E60" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>792</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>796</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>794</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" t="s">
+        <v>803</v>
+      </c>
+      <c r="C64" t="s">
+        <v>805</v>
+      </c>
+      <c r="E64" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -7963,11 +8005,11 @@
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
@@ -8785,23 +8827,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="12"/>
-      <c r="M1" s="59"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="12"/>
     </row>
     <row r="3" spans="1:18" s="13" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8830,13 +8872,13 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
@@ -8845,11 +8887,11 @@
       <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
@@ -9063,11 +9105,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="18"/>
       <c r="F1" s="21"/>
       <c r="M1" s="33"/>
@@ -9159,11 +9201,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
       <c r="M8" s="33"/>
@@ -9261,11 +9303,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="M18" s="33"/>
@@ -9322,11 +9364,11 @@
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="M24" s="33"/>
@@ -9349,11 +9391,11 @@
       </c>
     </row>
     <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="M27" s="33"/>
@@ -9373,11 +9415,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="M30" s="33"/>
@@ -9445,11 +9487,11 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="M36" s="33"/>
@@ -9469,11 +9511,11 @@
       </c>
     </row>
     <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
       <c r="M41" s="33"/>
@@ -9558,11 +9600,11 @@
       </c>
     </row>
     <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="18"/>
       <c r="F54" s="21"/>
       <c r="M54" s="33"/>
@@ -9582,11 +9624,11 @@
       </c>
     </row>
     <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="18"/>
       <c r="F58" s="21"/>
       <c r="M58" s="33"/>
@@ -9606,11 +9648,11 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="18"/>
       <c r="F62" s="21"/>
       <c r="M62" s="33"/>
@@ -9645,17 +9687,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="822">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5126,6 +5126,45 @@
   </si>
   <si>
     <t>様子-DẠNG TỬ</t>
+  </si>
+  <si>
+    <t>Từ không thuộc</t>
+  </si>
+  <si>
+    <t>専門</t>
+  </si>
+  <si>
+    <t>関係</t>
+  </si>
+  <si>
+    <t>chuyên môn</t>
+  </si>
+  <si>
+    <t>quan hệ, liên quan</t>
+  </si>
+  <si>
+    <t>せんもん</t>
+  </si>
+  <si>
+    <t>かんけい</t>
+  </si>
+  <si>
+    <t>ぴったり</t>
+  </si>
+  <si>
+    <t>しか</t>
+  </si>
+  <si>
+    <t>chỉ</t>
+  </si>
+  <si>
+    <t>が</t>
+  </si>
+  <si>
+    <t>あいます</t>
+  </si>
+  <si>
+    <t>vừa, hợp</t>
   </si>
 </sst>
 </file>
@@ -7419,10 +7458,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H3"/>
+  <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7445,6 +7484,17 @@
         <v>758</v>
       </c>
     </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H5" t="s">
+        <v>821</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7454,10 +7504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M64"/>
+  <dimension ref="B3:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7869,96 +7919,138 @@
       <c r="E44" s="55" t="s">
         <v>800</v>
       </c>
+      <c r="I44" s="55" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>169</v>
+        <v>782</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>783</v>
+      </c>
+      <c r="I46" t="s">
+        <v>814</v>
+      </c>
+      <c r="J46" t="s">
+        <v>812</v>
+      </c>
+      <c r="L46" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" t="s">
+        <v>817</v>
+      </c>
+      <c r="E47" t="s">
+        <v>818</v>
+      </c>
+      <c r="I47" t="s">
+        <v>815</v>
+      </c>
+      <c r="J47" t="s">
+        <v>813</v>
+      </c>
+      <c r="L47" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B48" t="s">
-        <v>762</v>
-      </c>
-      <c r="E48" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" t="s">
-        <v>277</v>
-      </c>
-      <c r="E49" t="s">
-        <v>764</v>
+      <c r="I48" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
+        <v>762</v>
+      </c>
+      <c r="E53" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
         <v>765</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E56" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" t="s">
-        <v>767</v>
-      </c>
-      <c r="C55" t="s">
-        <v>768</v>
-      </c>
-      <c r="E55" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
-        <v>772</v>
-      </c>
-      <c r="C57" t="s">
-        <v>774</v>
-      </c>
-      <c r="E57" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="E58" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
+        <v>767</v>
+      </c>
+      <c r="C60" t="s">
+        <v>768</v>
+      </c>
+      <c r="E60" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>772</v>
+      </c>
+      <c r="C62" t="s">
+        <v>774</v>
+      </c>
+      <c r="E62" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="E63" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" t="s">
         <v>791</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C65" t="s">
         <v>795</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E65" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
-      <c r="B61" t="s">
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
         <v>792</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C66" t="s">
         <v>796</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E66" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="B64" t="s">
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
         <v>803</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C69" t="s">
         <v>805</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E69" t="s">
         <v>804</v>
       </c>
     </row>
@@ -9687,17 +9779,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="830">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5165,6 +5165,30 @@
   </si>
   <si>
     <t>vừa, hợp</t>
+  </si>
+  <si>
+    <t>かわい</t>
+  </si>
+  <si>
+    <t>わかい</t>
+  </si>
+  <si>
+    <t>dễ thương</t>
+  </si>
+  <si>
+    <t>trẻ</t>
+  </si>
+  <si>
+    <t>わらい</t>
+  </si>
+  <si>
+    <t>cười</t>
+  </si>
+  <si>
+    <t>こわい</t>
+  </si>
+  <si>
+    <t>sợ</t>
   </si>
 </sst>
 </file>
@@ -5390,7 +5414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5457,6 +5481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5485,7 +5515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5619,6 +5649,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6021,7 +6052,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7460,7 +7491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7504,10 +7535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M69"/>
+  <dimension ref="B3:M78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7636,145 +7667,131 @@
       <c r="F10" s="52"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="61" t="s">
+        <v>822</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61" t="s">
+        <v>824</v>
+      </c>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="61" t="s">
+        <v>823</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61" t="s">
+        <v>825</v>
+      </c>
+      <c r="F13" s="61"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="61" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>827</v>
+      </c>
+      <c r="F14" s="61"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="61" t="s">
+        <v>828</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61" t="s">
+        <v>829</v>
+      </c>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="39" t="s">
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="39" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C19" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="53" t="s">
+      <c r="F19" s="39"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="53" t="s">
         <v>732</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C22" s="53" t="s">
         <v>731</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="53" t="s">
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="53" t="s">
         <v>733</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C23" s="53" t="s">
         <v>734</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53" t="s">
         <v>736</v>
       </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="53" t="s">
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="53" t="s">
         <v>807</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C24" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="53" t="s">
         <v>806</v>
       </c>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>739</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="42" t="s">
-        <v>752</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="42" t="s">
-        <v>741</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42" t="s">
-        <v>742</v>
-      </c>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="42" t="s">
-        <v>770</v>
-      </c>
-      <c r="C27" s="42"/>
+        <v>737</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>739</v>
+      </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="F27" s="42"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="42"/>
+      <c r="B28" s="42" t="s">
+        <v>743</v>
+      </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -7782,275 +7799,354 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="42" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
       <c r="E29" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B31" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42" t="s">
+        <v>771</v>
+      </c>
+      <c r="F33" s="42"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="42" t="s">
+        <v>744</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="39" t="s">
+      <c r="F35" s="42"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
         <v>748</v>
       </c>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="39" t="s">
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="39" t="s">
         <v>749</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39" t="s">
         <v>747</v>
       </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="13" t="s">
-        <v>776</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30" t="s">
-        <v>751</v>
-      </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="30" t="s">
-        <v>782</v>
-      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53" t="s">
+        <v>751</v>
+      </c>
+      <c r="F45" s="53"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="53" t="s">
+        <v>782</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53" t="s">
         <v>783</v>
       </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1">
-      <c r="B41" t="s">
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B50" t="s">
         <v>729</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E50" t="s">
         <v>730</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I50" t="s">
         <v>71</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M50" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="14.25" customHeight="1"/>
-    <row r="43" spans="2:13" s="55" customFormat="1">
-      <c r="B43" s="55" t="s">
+    <row r="51" spans="2:13" ht="14.25" customHeight="1"/>
+    <row r="52" spans="2:13" s="55" customFormat="1">
+      <c r="B52" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E52" s="55" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="2:13" s="55" customFormat="1">
-      <c r="B44" s="55" t="s">
+    <row r="53" spans="2:13" s="55" customFormat="1">
+      <c r="B53" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="E44" s="55" t="s">
+      <c r="E53" s="55" t="s">
         <v>800</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I53" s="55" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
-      <c r="B46" t="s">
+    <row r="55" spans="2:13">
+      <c r="B55" t="s">
         <v>782</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E55" t="s">
         <v>783</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I55" t="s">
         <v>814</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J55" t="s">
         <v>812</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L55" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="47" spans="2:13">
-      <c r="B47" t="s">
+    <row r="56" spans="2:13">
+      <c r="B56" t="s">
         <v>817</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E56" t="s">
         <v>818</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I56" t="s">
         <v>815</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J56" t="s">
         <v>813</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L56" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="14.25" customHeight="1">
-      <c r="I48" t="s">
+    <row r="57" spans="2:13" ht="14.25" customHeight="1">
+      <c r="I57" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
-      <c r="B51" t="s">
+    <row r="60" spans="2:13">
+      <c r="B60" t="s">
         <v>169</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="B53" t="s">
+    <row r="62" spans="2:13">
+      <c r="B62" t="s">
         <v>762</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E62" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="B54" t="s">
+    <row r="63" spans="2:13">
+      <c r="B63" t="s">
         <v>277</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E63" t="s">
         <v>764</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
-        <v>765</v>
-      </c>
-      <c r="E56" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" t="s">
-        <v>767</v>
-      </c>
-      <c r="C60" t="s">
-        <v>768</v>
-      </c>
-      <c r="E60" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" t="s">
-        <v>772</v>
-      </c>
-      <c r="C62" t="s">
-        <v>774</v>
-      </c>
-      <c r="E62" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="E63" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>791</v>
-      </c>
-      <c r="C65" t="s">
-        <v>795</v>
+        <v>765</v>
       </c>
       <c r="E65" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" t="s">
-        <v>792</v>
-      </c>
-      <c r="C66" t="s">
-        <v>796</v>
-      </c>
-      <c r="E66" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
+        <v>767</v>
+      </c>
+      <c r="C69" t="s">
+        <v>768</v>
+      </c>
+      <c r="E69" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>772</v>
+      </c>
+      <c r="C71" t="s">
+        <v>774</v>
+      </c>
+      <c r="E71" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="E72" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>791</v>
+      </c>
+      <c r="C74" t="s">
+        <v>795</v>
+      </c>
+      <c r="E74" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>792</v>
+      </c>
+      <c r="C75" t="s">
+        <v>796</v>
+      </c>
+      <c r="E75" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
         <v>803</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C78" t="s">
         <v>805</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E78" t="s">
         <v>804</v>
       </c>
     </row>
@@ -9779,17 +9875,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="837">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5189,6 +5189,27 @@
   </si>
   <si>
     <t>sợ</t>
+  </si>
+  <si>
+    <t>かた</t>
+  </si>
+  <si>
+    <t>しょうかいします</t>
+  </si>
+  <si>
+    <t>そうたいします</t>
+  </si>
+  <si>
+    <t>しょうたいします</t>
+  </si>
+  <si>
+    <t>Giới thiệu - 紹介します</t>
+  </si>
+  <si>
+    <t>chiêu đãi, mời - 招待します</t>
+  </si>
+  <si>
+    <t>về sớm, ra sớm - 早退します</t>
   </si>
 </sst>
 </file>
@@ -5634,6 +5655,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5649,7 +5671,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6071,22 +6092,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="61" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7535,10 +7556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M78"/>
+  <dimension ref="B3:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7667,48 +7688,48 @@
       <c r="F10" s="52"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="56" t="s">
         <v>822</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56" t="s">
         <v>824</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>825</v>
       </c>
-      <c r="F13" s="61"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="56" t="s">
         <v>826</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56" t="s">
         <v>827</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="56" t="s">
         <v>828</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
         <v>829</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="39" t="s">
@@ -8058,95 +8079,119 @@
         <v>816</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="58" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B58" t="s">
+        <v>831</v>
+      </c>
+      <c r="E58" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="14.25" customHeight="1">
+      <c r="B59" t="s">
+        <v>833</v>
+      </c>
+      <c r="E59" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="13.5" customHeight="1">
       <c r="B60" t="s">
-        <v>169</v>
+        <v>832</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>836</v>
       </c>
     </row>
     <row r="62" spans="2:13">
       <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" t="s">
         <v>762</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" t="s">
-        <v>277</v>
-      </c>
-      <c r="E63" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="E65" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
         <v>765</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E67" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" t="s">
-        <v>767</v>
-      </c>
-      <c r="C69" t="s">
-        <v>768</v>
-      </c>
-      <c r="E69" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
+        <v>767</v>
+      </c>
+      <c r="C71" t="s">
+        <v>768</v>
+      </c>
+      <c r="E71" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
         <v>772</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>774</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="E72" t="s">
+    <row r="74" spans="2:5">
+      <c r="E74" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
-      <c r="B74" t="s">
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
         <v>791</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>795</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
-      <c r="B75" t="s">
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
         <v>792</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>796</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
-      <c r="B78" t="s">
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
         <v>803</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>805</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>804</v>
       </c>
     </row>
@@ -8193,11 +8238,11 @@
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
@@ -8996,10 +9041,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -9015,21 +9060,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="12"/>
       <c r="M1" s="54"/>
       <c r="N1" s="12"/>
@@ -9060,13 +9105,13 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
@@ -9075,11 +9120,11 @@
       <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
@@ -9142,6 +9187,11 @@
     <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -9293,11 +9343,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="18"/>
       <c r="F1" s="21"/>
       <c r="M1" s="33"/>
@@ -9389,11 +9439,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
       <c r="M8" s="33"/>
@@ -9491,11 +9541,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="M18" s="33"/>
@@ -9552,11 +9602,11 @@
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="M24" s="33"/>
@@ -9579,11 +9629,11 @@
       </c>
     </row>
     <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="M27" s="33"/>
@@ -9603,11 +9653,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="M30" s="33"/>
@@ -9675,11 +9725,11 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="M36" s="33"/>
@@ -9699,11 +9749,11 @@
       </c>
     </row>
     <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
       <c r="M41" s="33"/>
@@ -9788,11 +9838,11 @@
       </c>
     </row>
     <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
       <c r="E54" s="18"/>
       <c r="F54" s="21"/>
       <c r="M54" s="33"/>
@@ -9812,11 +9862,11 @@
       </c>
     </row>
     <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="59" t="s">
+      <c r="B58" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
       <c r="E58" s="18"/>
       <c r="F58" s="21"/>
       <c r="M58" s="33"/>
@@ -9836,11 +9886,11 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
       <c r="E62" s="18"/>
       <c r="F62" s="21"/>
       <c r="M62" s="33"/>
@@ -9875,17 +9925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="858">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5210,13 +5210,451 @@
   </si>
   <si>
     <t>về sớm, ra sớm - 早退します</t>
+  </si>
+  <si>
+    <t>Bài 41</t>
+  </si>
+  <si>
+    <t>Cho nhận (quan hệ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">　N2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>やります</t>
+    </r>
+  </si>
+  <si>
+    <t>～</t>
+  </si>
+  <si>
+    <t>Đối với người thường dùng あげます</t>
+  </si>
+  <si>
+    <r>
+      <t>Cho … con hay động vật =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> người dưới</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたしは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>子供</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」 ｢犬｣「花」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に　。。。を　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あげます</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>やります</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたしは　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に　プレゼントを　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さしあげます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたしは　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>友達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に　。。。を　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あげます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">N1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">　N2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いただきます</t>
+    </r>
+  </si>
+  <si>
+    <t>さしあげます。</t>
+  </si>
+  <si>
+    <t>あげます。</t>
+  </si>
+  <si>
+    <t>やります</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người dưới</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người trên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bạn bè</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người dưới</t>
+    </r>
+  </si>
+  <si>
+    <t>もらいます</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">được, nhận từ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người trên</t>
+    </r>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <r>
+      <t>nhận</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> người trên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>người  dưới, bạn bè</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5434,8 +5872,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5508,8 +5961,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5532,11 +5991,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -5656,6 +6188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5671,6 +6206,40 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6092,22 +6661,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7558,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8238,11 +8807,11 @@
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
@@ -9041,10 +9610,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -9052,29 +9621,32 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="13"/>
+    <col min="13" max="13" width="2.42578125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
       <c r="L1" s="12"/>
       <c r="M1" s="54"/>
       <c r="N1" s="12"/>
@@ -9105,13 +9677,13 @@
       <c r="F5" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
@@ -9120,11 +9692,11 @@
       <c r="F6" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
@@ -9184,21 +9756,209 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>830</v>
       </c>
     </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="59" t="s">
+        <v>837</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59" t="s">
+        <v>838</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="57"/>
+    </row>
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="63" t="s">
+        <v>839</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="H25" t="s">
+        <v>840</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="O25" s="73" t="s">
+        <v>844</v>
+      </c>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+    </row>
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+    </row>
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="O27" s="73" t="s">
+        <v>845</v>
+      </c>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="69"/>
+      <c r="C28" s="71" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="70"/>
+      <c r="C29" s="72" t="s">
+        <v>841</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+    </row>
+    <row r="31" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="C31" s="75" t="s">
+        <v>849</v>
+      </c>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76" t="s">
+        <v>850</v>
+      </c>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+    </row>
+    <row r="32" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="C32" s="77" t="s">
+        <v>847</v>
+      </c>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78" t="s">
+        <v>851</v>
+      </c>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="77" t="s">
+        <v>848</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="C35" s="63" t="s">
+        <v>846</v>
+      </c>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="H35" t="s">
+        <v>840</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="38" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="69"/>
+      <c r="C38" s="6" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="C40" s="75" t="s">
+        <v>855</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="C41" s="77" t="s">
+        <v>853</v>
+      </c>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="C35:F36"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O27:T27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H5:L6"/>
     <mergeCell ref="D1:K1"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:K23"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9343,11 +10103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="18"/>
       <c r="F1" s="21"/>
       <c r="M1" s="33"/>
@@ -9439,11 +10199,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
       <c r="M8" s="33"/>
@@ -9541,11 +10301,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="M18" s="33"/>
@@ -9602,11 +10362,11 @@
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="M24" s="33"/>
@@ -9629,11 +10389,11 @@
       </c>
     </row>
     <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="M27" s="33"/>
@@ -9653,11 +10413,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="M30" s="33"/>
@@ -9725,11 +10485,11 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="M36" s="33"/>
@@ -9749,11 +10509,11 @@
       </c>
     </row>
     <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
       <c r="M41" s="33"/>
@@ -9838,11 +10598,11 @@
       </c>
     </row>
     <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="18"/>
       <c r="F54" s="21"/>
       <c r="M54" s="33"/>
@@ -9862,11 +10622,11 @@
       </c>
     </row>
     <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="60" t="s">
+      <c r="B58" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="18"/>
       <c r="F58" s="21"/>
       <c r="M58" s="33"/>
@@ -9886,11 +10646,11 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="18"/>
       <c r="F62" s="21"/>
       <c r="M62" s="33"/>
@@ -9925,17 +10685,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="911">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5446,12 +5446,229 @@
   <si>
     <t>sâu dày</t>
   </si>
+  <si>
+    <r>
+      <t>土曜日のボランテァ活動に参加できる人を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+      </rPr>
+      <t>求めて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+      </rPr>
+      <t>います。</t>
+    </r>
+  </si>
+  <si>
+    <t>Mục từ</t>
+  </si>
+  <si>
+    <t>Từ loại</t>
+  </si>
+  <si>
+    <t>Âm Hán</t>
+  </si>
+  <si>
+    <t>ボランテァ</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>活動(かつどう)</t>
+  </si>
+  <si>
+    <t>v,n</t>
+  </si>
+  <si>
+    <t>HOẠT ĐỘNG</t>
+  </si>
+  <si>
+    <t>参加(さんか)</t>
+  </si>
+  <si>
+    <t>THAM GIA</t>
+  </si>
+  <si>
+    <t>求める(もとめる)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>CẦU</t>
+  </si>
+  <si>
+    <t>Nghĩa</t>
+  </si>
+  <si>
+    <t>Tình nguyện</t>
+  </si>
+  <si>
+    <t>Hoạt động</t>
+  </si>
+  <si>
+    <t>Tham gia, có mặt</t>
+  </si>
+  <si>
+    <t>Tìm kiếm, nhờ vả</t>
+  </si>
+  <si>
+    <r>
+      <t>どこか遠くへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旅行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にいきたいですね。</t>
+    </r>
+  </si>
+  <si>
+    <t>旅行(りょこう)</t>
+  </si>
+  <si>
+    <t>v, n</t>
+  </si>
+  <si>
+    <t>LỮ HÀNH</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
+    <t>遠(とお）</t>
+  </si>
+  <si>
+    <t>ViỄN</t>
+  </si>
+  <si>
+    <t>Xa</t>
+  </si>
+  <si>
+    <r>
+      <t>課長はただいま</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しておりますが、どういったご用件でしょうか。</t>
+    </r>
+  </si>
+  <si>
+    <t>ただいま</t>
+  </si>
+  <si>
+    <t>Hiện giờ, đã về, xin chào,…</t>
+  </si>
+  <si>
+    <t>どういった</t>
+  </si>
+  <si>
+    <t>Như thế nào</t>
+  </si>
+  <si>
+    <t>課長(かちょう)</t>
+  </si>
+  <si>
+    <t>KHÓA TRƯỞNG</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>外出(がいしゅつ)</t>
+  </si>
+  <si>
+    <t>NGOẠI XUẤT</t>
+  </si>
+  <si>
+    <t>Đi ra ngoài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用件(ようけん)  </t>
+  </si>
+  <si>
+    <t>DỤNG KIỆN</t>
+  </si>
+  <si>
+    <t>Việc</t>
+  </si>
+  <si>
+    <t>Ngữ pháp:</t>
+  </si>
+  <si>
+    <t>► Vております＝Vています：Đang làm gì đó (Khiêm nhường ngữ). Dùng cho người thuộc nhóm của mình, dùng biểu thị sự khiêm nhường trước người có vị trí cao hơn, khách hàng, người ngoài.</t>
+  </si>
+  <si>
+    <t>♦ Ví dụ:</t>
+  </si>
+  <si>
+    <t>∆ 今度のカタログをご参考ために送っておりますが…</t>
+  </si>
+  <si>
+    <t>∆ Tôi đã có gửi cataloge lần này cho ông/bà tham khảo rồi,…</t>
+  </si>
+  <si>
+    <t>Dịch:</t>
+  </si>
+  <si>
+    <t>Trưởng phòng hiện giờ đang ra ngoài, không biết ngài có việc gì ạ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="50">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5810,6 +6027,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -6014,7 +6271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6272,6 +6529,36 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7277,17 +7564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7472,19 +7759,19 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:I106"/>
+  <dimension ref="B2:I135"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="62"/>
-    <col min="2" max="2" width="5.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="62" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="91" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="102" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="30" style="62" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="62" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="62"/>
   </cols>
@@ -7841,33 +8128,36 @@
       </c>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="62">
+      <c r="B100" s="77">
         <v>0</v>
       </c>
-      <c r="C100" s="91" t="s">
+      <c r="C100" s="123" t="s">
         <v>846</v>
       </c>
-      <c r="D100" s="102" t="s">
+      <c r="D100" s="124" t="s">
         <v>854</v>
       </c>
-      <c r="E100" s="62" t="s">
+      <c r="E100" s="77" t="s">
         <v>847</v>
       </c>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="62">
+      <c r="B101" s="77">
         <v>1</v>
       </c>
-      <c r="C101" s="91" t="s">
+      <c r="C101" s="123" t="s">
         <v>840</v>
       </c>
-      <c r="D101" s="102" t="s">
+      <c r="D101" s="124" t="s">
         <v>841</v>
       </c>
-      <c r="E101" s="62" t="s">
+      <c r="E101" s="77" t="s">
         <v>848</v>
       </c>
-      <c r="G101" s="62" t="s">
+      <c r="F101" s="77"/>
+      <c r="G101" s="77" t="s">
         <v>849</v>
       </c>
     </row>
@@ -7877,31 +8167,279 @@
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="62">
+      <c r="B105" s="77">
         <v>0</v>
       </c>
-      <c r="C105" s="91" t="s">
+      <c r="C105" s="123" t="s">
         <v>850</v>
       </c>
-      <c r="D105" s="102" t="s">
+      <c r="D105" s="124" t="s">
         <v>851</v>
       </c>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="62">
+      <c r="B106" s="77">
         <v>1</v>
       </c>
-      <c r="C106" s="91" t="s">
+      <c r="C106" s="123" t="s">
         <v>852</v>
       </c>
-      <c r="D106" s="102" t="s">
+      <c r="D106" s="124" t="s">
         <v>853</v>
       </c>
-      <c r="E106" s="62" t="s">
+      <c r="E106" s="77" t="s">
         <v>855</v>
       </c>
-      <c r="G106" s="62" t="s">
+      <c r="F106" s="77"/>
+      <c r="G106" s="77" t="s">
         <v>856</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="18">
+      <c r="B108" s="118" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="30" customHeight="1">
+      <c r="B110" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="C110" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="D110" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="E110" s="119" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="30" customHeight="1">
+      <c r="B111" s="120" t="s">
+        <v>867</v>
+      </c>
+      <c r="C111" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" ht="30" customHeight="1">
+      <c r="B112" s="120" t="s">
+        <v>869</v>
+      </c>
+      <c r="C112" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="D112" s="121" t="s">
+        <v>871</v>
+      </c>
+      <c r="E112" s="121" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" ht="30" customHeight="1">
+      <c r="B113" s="120" t="s">
+        <v>872</v>
+      </c>
+      <c r="C113" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="D113" s="121" t="s">
+        <v>873</v>
+      </c>
+      <c r="E113" s="121" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="30" customHeight="1">
+      <c r="B114" s="120" t="s">
+        <v>874</v>
+      </c>
+      <c r="C114" s="121" t="s">
+        <v>875</v>
+      </c>
+      <c r="D114" s="121" t="s">
+        <v>876</v>
+      </c>
+      <c r="E114" s="121" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="18.75">
+      <c r="B116" s="122" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="C118" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="D118" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="E118" s="119" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="18.75">
+      <c r="B119" s="120" t="s">
+        <v>883</v>
+      </c>
+      <c r="C119" s="121" t="s">
+        <v>884</v>
+      </c>
+      <c r="D119" s="121" t="s">
+        <v>885</v>
+      </c>
+      <c r="E119" s="121" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="77" t="s">
+        <v>887</v>
+      </c>
+      <c r="C120" s="123"/>
+      <c r="D120" s="124" t="s">
+        <v>888</v>
+      </c>
+      <c r="E120" s="77" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="18.75">
+      <c r="B122" s="122" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="G123" s="125" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="119" t="s">
+        <v>864</v>
+      </c>
+      <c r="C124" s="119" t="s">
+        <v>865</v>
+      </c>
+      <c r="D124" s="119" t="s">
+        <v>866</v>
+      </c>
+      <c r="E124" s="119" t="s">
+        <v>877</v>
+      </c>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="2:7" ht="18.75">
+      <c r="B125" s="120" t="s">
+        <v>891</v>
+      </c>
+      <c r="C125" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121" t="s">
+        <v>892</v>
+      </c>
+      <c r="G125" s="126" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="18.75">
+      <c r="B126" s="120" t="s">
+        <v>893</v>
+      </c>
+      <c r="C126" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121" t="s">
+        <v>894</v>
+      </c>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="2:7" ht="30.75">
+      <c r="B127" s="120" t="s">
+        <v>895</v>
+      </c>
+      <c r="C127" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D127" s="121" t="s">
+        <v>896</v>
+      </c>
+      <c r="E127" s="121" t="s">
+        <v>897</v>
+      </c>
+      <c r="G127" s="127" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="18.75">
+      <c r="B128" s="120" t="s">
+        <v>898</v>
+      </c>
+      <c r="C128" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D128" s="121" t="s">
+        <v>899</v>
+      </c>
+      <c r="E128" s="121" t="s">
+        <v>900</v>
+      </c>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="2:7" ht="18.75">
+      <c r="B129" s="120" t="s">
+        <v>901</v>
+      </c>
+      <c r="C129" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="D129" s="121" t="s">
+        <v>902</v>
+      </c>
+      <c r="E129" s="121" t="s">
+        <v>903</v>
+      </c>
+      <c r="G129" s="128" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="G131" s="128" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="G133" s="125" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="G135" s="129" t="s">
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -7914,8 +8452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="922">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5662,6 +5662,73 @@
   </si>
   <si>
     <t>Trưởng phòng hiện giờ đang ra ngoài, không biết ngài có việc gì ạ?</t>
+  </si>
+  <si>
+    <t>眠い</t>
+  </si>
+  <si>
+    <t>buồn ngủ</t>
+  </si>
+  <si>
+    <r>
+      <t>ねむ_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>い</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>けさ 洗濯した 服が まだ　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>かわいて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　いません</t>
+    </r>
+  </si>
+  <si>
+    <t>Quần áo giặt sáng này chưa khô</t>
+  </si>
+  <si>
+    <t>。- ぬれます</t>
+  </si>
+  <si>
+    <t>ướt</t>
+  </si>
+  <si>
+    <t>khô</t>
+  </si>
+  <si>
+    <t>mát</t>
+  </si>
+  <si>
+    <t>。- 冷えます(ひえます）</t>
+  </si>
+  <si>
+    <t>。- かわきます－乾きます</t>
   </si>
 </sst>
 </file>
@@ -6494,6 +6561,36 @@
     <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6529,36 +6626,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6982,11 +7049,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="128" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="18"/>
       <c r="F1" s="21"/>
       <c r="M1" s="33"/>
@@ -7078,11 +7145,11 @@
       </c>
     </row>
     <row r="8" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="18"/>
       <c r="F8" s="21"/>
       <c r="M8" s="33"/>
@@ -7180,11 +7247,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="M18" s="33"/>
@@ -7241,11 +7308,11 @@
     </row>
     <row r="23" spans="2:13" ht="14.25" customHeight="1"/>
     <row r="24" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="18"/>
       <c r="F24" s="21"/>
       <c r="M24" s="33"/>
@@ -7268,11 +7335,11 @@
       </c>
     </row>
     <row r="27" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="18"/>
       <c r="F27" s="21"/>
       <c r="M27" s="33"/>
@@ -7292,11 +7359,11 @@
       </c>
     </row>
     <row r="30" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="116" t="s">
+      <c r="B30" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="18"/>
       <c r="F30" s="21"/>
       <c r="M30" s="33"/>
@@ -7364,11 +7431,11 @@
       </c>
     </row>
     <row r="36" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="18"/>
       <c r="F36" s="21"/>
       <c r="M36" s="33"/>
@@ -7388,11 +7455,11 @@
       </c>
     </row>
     <row r="41" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="128" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
       <c r="E41" s="18"/>
       <c r="F41" s="21"/>
       <c r="M41" s="33"/>
@@ -7477,11 +7544,11 @@
       </c>
     </row>
     <row r="54" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
       <c r="E54" s="18"/>
       <c r="F54" s="21"/>
       <c r="M54" s="33"/>
@@ -7501,11 +7568,11 @@
       </c>
     </row>
     <row r="58" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="116" t="s">
+      <c r="B58" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="128"/>
       <c r="E58" s="18"/>
       <c r="F58" s="21"/>
       <c r="M58" s="33"/>
@@ -7525,11 +7592,11 @@
       </c>
     </row>
     <row r="62" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="128" t="s">
         <v>272</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="128"/>
       <c r="E62" s="18"/>
       <c r="F62" s="21"/>
       <c r="M62" s="33"/>
@@ -7564,17 +7631,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7606,22 +7673,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="26" customFormat="1" ht="21.95" customHeight="1">
       <c r="I1" s="37"/>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="129" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="117" t="s">
+      <c r="Q1" s="129" t="s">
         <v>395</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
@@ -7759,10 +7826,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:I135"/>
+  <dimension ref="B2:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7960,10 +8027,17 @@
       </c>
     </row>
     <row r="22" spans="2:9" s="78" customFormat="1">
-      <c r="B22" s="79"/>
+      <c r="B22" s="79" t="s">
+        <v>911</v>
+      </c>
       <c r="C22" s="90"/>
       <c r="D22" s="101"/>
-      <c r="E22" s="79"/>
+      <c r="E22" s="79" t="s">
+        <v>913</v>
+      </c>
+      <c r="G22" s="78" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="62" t="s">
@@ -8091,92 +8165,102 @@
         <v>833</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="62" t="s">
+    <row r="47" spans="2:7" s="83" customFormat="1" ht="18">
+      <c r="B47" s="84"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="84"/>
+    </row>
+    <row r="48" spans="2:7" s="83" customFormat="1" ht="18">
+      <c r="B48" s="84" t="s">
+        <v>914</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="83" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="83" customFormat="1" ht="18">
+      <c r="B49" s="84" t="s">
+        <v>916</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>917</v>
+      </c>
+      <c r="D49" s="105"/>
+      <c r="E49" s="84"/>
+    </row>
+    <row r="50" spans="2:6" s="83" customFormat="1" ht="18">
+      <c r="B50" s="84" t="s">
+        <v>921</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>918</v>
+      </c>
+      <c r="D50" s="105"/>
+      <c r="E50" s="84"/>
+    </row>
+    <row r="51" spans="2:6" s="83" customFormat="1" ht="18">
+      <c r="B51" s="84" t="s">
+        <v>920</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>919</v>
+      </c>
+      <c r="D51" s="105"/>
+      <c r="E51" s="84"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="62" t="s">
         <v>767</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F53" s="62" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="62" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" s="62" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="62" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F55" s="62" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
-      <c r="F51" s="62" t="s">
+    <row r="56" spans="2:6">
+      <c r="F56" s="62" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
-      <c r="F52" s="62" t="s">
+    <row r="57" spans="2:6">
+      <c r="F57" s="62" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="62" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="77">
-        <v>0</v>
-      </c>
-      <c r="C100" s="123" t="s">
-        <v>846</v>
-      </c>
-      <c r="D100" s="124" t="s">
-        <v>854</v>
-      </c>
-      <c r="E100" s="77" t="s">
-        <v>847</v>
-      </c>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="77">
-        <v>1</v>
-      </c>
-      <c r="C101" s="123" t="s">
-        <v>840</v>
-      </c>
-      <c r="D101" s="124" t="s">
-        <v>841</v>
-      </c>
-      <c r="E101" s="77" t="s">
-        <v>848</v>
-      </c>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="62" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="77">
         <v>0</v>
       </c>
-      <c r="C105" s="123" t="s">
-        <v>850</v>
-      </c>
-      <c r="D105" s="124" t="s">
-        <v>851</v>
-      </c>
-      <c r="E105" s="77"/>
+      <c r="C105" s="111" t="s">
+        <v>846</v>
+      </c>
+      <c r="D105" s="112" t="s">
+        <v>854</v>
+      </c>
+      <c r="E105" s="77" t="s">
+        <v>847</v>
+      </c>
       <c r="F105" s="77"/>
       <c r="G105" s="77"/>
     </row>
@@ -8184,261 +8268,298 @@
       <c r="B106" s="77">
         <v>1</v>
       </c>
-      <c r="C106" s="123" t="s">
-        <v>852</v>
-      </c>
-      <c r="D106" s="124" t="s">
-        <v>853</v>
+      <c r="C106" s="111" t="s">
+        <v>840</v>
+      </c>
+      <c r="D106" s="112" t="s">
+        <v>841</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F106" s="77"/>
       <c r="G106" s="77" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="62" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="77">
+        <v>0</v>
+      </c>
+      <c r="C110" s="111" t="s">
+        <v>850</v>
+      </c>
+      <c r="D110" s="112" t="s">
+        <v>851</v>
+      </c>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="77">
+        <v>1</v>
+      </c>
+      <c r="C111" s="111" t="s">
+        <v>852</v>
+      </c>
+      <c r="D111" s="112" t="s">
+        <v>853</v>
+      </c>
+      <c r="E111" s="77" t="s">
+        <v>855</v>
+      </c>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="18">
-      <c r="B108" s="118" t="s">
+    <row r="113" spans="2:7" ht="18">
+      <c r="B113" s="106" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="30" customHeight="1">
-      <c r="B110" s="119" t="s">
+    <row r="115" spans="2:7" ht="30" customHeight="1">
+      <c r="B115" s="107" t="s">
         <v>864</v>
       </c>
-      <c r="C110" s="119" t="s">
+      <c r="C115" s="107" t="s">
         <v>865</v>
       </c>
-      <c r="D110" s="119" t="s">
+      <c r="D115" s="107" t="s">
         <v>866</v>
       </c>
-      <c r="E110" s="119" t="s">
+      <c r="E115" s="107" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="30" customHeight="1">
-      <c r="B111" s="120" t="s">
+    <row r="116" spans="2:7" ht="30" customHeight="1">
+      <c r="B116" s="108" t="s">
         <v>867</v>
       </c>
-      <c r="C111" s="121" t="s">
+      <c r="C116" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121" t="s">
+      <c r="D116" s="109"/>
+      <c r="E116" s="109" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="30" customHeight="1">
-      <c r="B112" s="120" t="s">
+    <row r="117" spans="2:7" ht="30" customHeight="1">
+      <c r="B117" s="108" t="s">
         <v>869</v>
       </c>
-      <c r="C112" s="121" t="s">
+      <c r="C117" s="109" t="s">
         <v>870</v>
       </c>
-      <c r="D112" s="121" t="s">
+      <c r="D117" s="109" t="s">
         <v>871</v>
       </c>
-      <c r="E112" s="121" t="s">
+      <c r="E117" s="109" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="30" customHeight="1">
-      <c r="B113" s="120" t="s">
+    <row r="118" spans="2:7" ht="30" customHeight="1">
+      <c r="B118" s="108" t="s">
         <v>872</v>
       </c>
-      <c r="C113" s="121" t="s">
+      <c r="C118" s="109" t="s">
         <v>870</v>
       </c>
-      <c r="D113" s="121" t="s">
+      <c r="D118" s="109" t="s">
         <v>873</v>
       </c>
-      <c r="E113" s="121" t="s">
+      <c r="E118" s="109" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="30" customHeight="1">
-      <c r="B114" s="120" t="s">
+    <row r="119" spans="2:7" ht="30" customHeight="1">
+      <c r="B119" s="108" t="s">
         <v>874</v>
       </c>
-      <c r="C114" s="121" t="s">
+      <c r="C119" s="109" t="s">
         <v>875</v>
       </c>
-      <c r="D114" s="121" t="s">
+      <c r="D119" s="109" t="s">
         <v>876</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E119" s="109" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="18.75">
-      <c r="B116" s="122" t="s">
+    <row r="121" spans="2:7" ht="18.75">
+      <c r="B121" s="110" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="119" t="s">
+    <row r="123" spans="2:7">
+      <c r="B123" s="107" t="s">
         <v>864</v>
       </c>
-      <c r="C118" s="119" t="s">
+      <c r="C123" s="107" t="s">
         <v>865</v>
       </c>
-      <c r="D118" s="119" t="s">
+      <c r="D123" s="107" t="s">
         <v>866</v>
       </c>
-      <c r="E118" s="119" t="s">
+      <c r="E123" s="107" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="18.75">
-      <c r="B119" s="120" t="s">
+    <row r="124" spans="2:7" ht="18.75">
+      <c r="B124" s="108" t="s">
         <v>883</v>
       </c>
-      <c r="C119" s="121" t="s">
+      <c r="C124" s="109" t="s">
         <v>884</v>
       </c>
-      <c r="D119" s="121" t="s">
+      <c r="D124" s="109" t="s">
         <v>885</v>
       </c>
-      <c r="E119" s="121" t="s">
+      <c r="E124" s="109" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="77" t="s">
+    <row r="125" spans="2:7">
+      <c r="B125" s="77" t="s">
         <v>887</v>
       </c>
-      <c r="C120" s="123"/>
-      <c r="D120" s="124" t="s">
+      <c r="C125" s="111"/>
+      <c r="D125" s="112" t="s">
         <v>888</v>
       </c>
-      <c r="E120" s="77" t="s">
+      <c r="E125" s="77" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="18.75">
-      <c r="B122" s="122" t="s">
+    <row r="127" spans="2:7" ht="18.75">
+      <c r="B127" s="110" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
-      <c r="G123" s="125" t="s">
+    <row r="128" spans="2:7">
+      <c r="G128" s="113" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="119" t="s">
+    <row r="129" spans="2:7">
+      <c r="B129" s="107" t="s">
         <v>864</v>
       </c>
-      <c r="C124" s="119" t="s">
+      <c r="C129" s="107" t="s">
         <v>865</v>
       </c>
-      <c r="D124" s="119" t="s">
+      <c r="D129" s="107" t="s">
         <v>866</v>
       </c>
-      <c r="E124" s="119" t="s">
+      <c r="E129" s="107" t="s">
         <v>877</v>
       </c>
-      <c r="G124"/>
-    </row>
-    <row r="125" spans="2:7" ht="18.75">
-      <c r="B125" s="120" t="s">
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="2:7" ht="18.75">
+      <c r="B130" s="108" t="s">
         <v>891</v>
       </c>
-      <c r="C125" s="121" t="s">
+      <c r="C130" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121" t="s">
+      <c r="D130" s="109"/>
+      <c r="E130" s="109" t="s">
         <v>892</v>
       </c>
-      <c r="G125" s="126" t="s">
+      <c r="G130" s="114" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="18.75">
-      <c r="B126" s="120" t="s">
+    <row r="131" spans="2:7" ht="18.75">
+      <c r="B131" s="108" t="s">
         <v>893</v>
       </c>
-      <c r="C126" s="121" t="s">
+      <c r="C131" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D126" s="121"/>
-      <c r="E126" s="121" t="s">
+      <c r="D131" s="109"/>
+      <c r="E131" s="109" t="s">
         <v>894</v>
       </c>
-      <c r="G126"/>
-    </row>
-    <row r="127" spans="2:7" ht="30.75">
-      <c r="B127" s="120" t="s">
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="2:7" ht="30.75">
+      <c r="B132" s="108" t="s">
         <v>895</v>
       </c>
-      <c r="C127" s="121" t="s">
+      <c r="C132" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D127" s="121" t="s">
+      <c r="D132" s="109" t="s">
         <v>896</v>
       </c>
-      <c r="E127" s="121" t="s">
+      <c r="E132" s="109" t="s">
         <v>897</v>
       </c>
-      <c r="G127" s="127" t="s">
+      <c r="G132" s="115" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="128" spans="2:7" ht="18.75">
-      <c r="B128" s="120" t="s">
+    <row r="133" spans="2:7" ht="18.75">
+      <c r="B133" s="108" t="s">
         <v>898</v>
       </c>
-      <c r="C128" s="121" t="s">
+      <c r="C133" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D128" s="121" t="s">
+      <c r="D133" s="109" t="s">
         <v>899</v>
       </c>
-      <c r="E128" s="121" t="s">
+      <c r="E133" s="109" t="s">
         <v>900</v>
       </c>
-      <c r="G128"/>
-    </row>
-    <row r="129" spans="2:7" ht="18.75">
-      <c r="B129" s="120" t="s">
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="2:7" ht="18.75">
+      <c r="B134" s="108" t="s">
         <v>901</v>
       </c>
-      <c r="C129" s="121" t="s">
+      <c r="C134" s="109" t="s">
         <v>868</v>
       </c>
-      <c r="D129" s="121" t="s">
+      <c r="D134" s="109" t="s">
         <v>902</v>
       </c>
-      <c r="E129" s="121" t="s">
+      <c r="E134" s="109" t="s">
         <v>903</v>
       </c>
-      <c r="G129" s="128" t="s">
+      <c r="G134" s="116" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
-      <c r="G130"/>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="G131" s="128" t="s">
+    <row r="135" spans="2:7">
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="G136" s="116" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
-      <c r="G132"/>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="G133" s="125" t="s">
+    <row r="137" spans="2:7">
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="G138" s="113" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
-      <c r="G134"/>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="G135" s="129" t="s">
+    <row r="139" spans="2:7">
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="G140" s="117" t="s">
         <v>910</v>
       </c>
     </row>
@@ -9269,11 +9390,11 @@
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
@@ -10957,21 +11078,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
       <c r="L1" s="12"/>
       <c r="M1" s="43"/>
       <c r="N1" s="12"/>
@@ -11002,13 +11123,13 @@
       <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="H5" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D6" t="s">
@@ -11017,11 +11138,11 @@
       <c r="F6" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="D7" t="s">
@@ -11092,62 +11213,62 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="126" t="s">
         <v>589</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114" t="s">
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="126"/>
       <c r="L23" s="46"/>
       <c r="M23" s="43"/>
       <c r="N23" s="46"/>
     </row>
     <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="119" t="s">
         <v>591</v>
       </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="121"/>
       <c r="H25" t="s">
         <v>592</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="O25" s="113" t="s">
+      <c r="O25" s="125" t="s">
         <v>596</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
     </row>
     <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="110"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="O27" s="113" t="s">
+      <c r="O27" s="125" t="s">
         <v>597</v>
       </c>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="113"/>
-      <c r="R27" s="113"/>
-      <c r="S27" s="113"/>
-      <c r="T27" s="113"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
     </row>
     <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="47"/>
@@ -11228,12 +11349,12 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="119" t="s">
         <v>598</v>
       </c>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="121"/>
       <c r="H35" t="s">
         <v>592</v>
       </c>
@@ -11242,10 +11363,10 @@
       </c>
     </row>
     <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="112"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="124"/>
     </row>
     <row r="38" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="47"/>

--- a/NN/chu_y_loi.xlsx
+++ b/NN/chu_y_loi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lỗi" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="all_Kanji" sheetId="14" r:id="rId7"/>
     <sheet name="文法" sheetId="9" state="hidden" r:id="rId8"/>
     <sheet name="nhom II" sheetId="10" state="hidden" r:id="rId9"/>
-    <sheet name="Tha dong tu" sheetId="11" state="hidden" r:id="rId10"/>
+    <sheet name="Tha dong tu" sheetId="11" r:id="rId10"/>
     <sheet name="Linh tinh" sheetId="12" r:id="rId11"/>
     <sheet name="gioi tu" sheetId="16" state="hidden" r:id="rId12"/>
     <sheet name="kiem tra" sheetId="17" r:id="rId13"/>
@@ -252,6 +252,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="H15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mai Chau:
+しゅ　：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">主人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D16" authorId="0">
       <text>
         <r>
@@ -317,6 +353,49 @@
           </rPr>
           <t xml:space="preserve">　：　午後
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mai Chau:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>う：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>　売れます</t>
         </r>
       </text>
     </comment>
@@ -452,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="946">
   <si>
     <t>.=&gt;</t>
   </si>
@@ -5730,12 +5809,84 @@
   <si>
     <t>。- かわきます－乾きます</t>
   </si>
+  <si>
+    <t>片付きます</t>
+  </si>
+  <si>
+    <t>片付けます</t>
+  </si>
+  <si>
+    <t>べつの</t>
+  </si>
+  <si>
+    <t>別の</t>
+  </si>
+  <si>
+    <t>riêng biệt</t>
+  </si>
+  <si>
+    <t>付けます</t>
+  </si>
+  <si>
+    <t>gắn vào</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <t>かたち</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>sức mạnh</t>
+  </si>
+  <si>
+    <t>hình dáng</t>
+  </si>
+  <si>
+    <t>ちょうどいい</t>
+  </si>
+  <si>
+    <t>phù hợp, vừa vặn</t>
+  </si>
+  <si>
+    <t>mỏng</t>
+  </si>
+  <si>
+    <t>chính xác là, chắc chắn là</t>
+  </si>
+  <si>
+    <t>chắc chắn</t>
+  </si>
+  <si>
+    <t>bật đèn</t>
+  </si>
+  <si>
+    <t>đèn sáng</t>
+  </si>
+  <si>
+    <t>có gắn</t>
+  </si>
+  <si>
+    <t>付きます</t>
+  </si>
+  <si>
+    <t>つけます　－　を</t>
+  </si>
+  <si>
+    <t>つきます　－　が</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6133,6 +6284,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="16">
@@ -7029,8 +7187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7631,17 +7789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7828,7 +7986,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -8571,10 +8729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:M90"/>
+  <dimension ref="A3:M104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8796,7 +8954,7 @@
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>790</v>
+        <v>937</v>
       </c>
       <c r="F21" s="45"/>
     </row>
@@ -8911,7 +9069,7 @@
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40" t="s">
-        <v>493</v>
+        <v>938</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -8921,7 +9079,9 @@
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="40" t="s">
+        <v>939</v>
+      </c>
       <c r="F38" s="40"/>
     </row>
     <row r="39" spans="2:6">
@@ -9286,6 +9446,26 @@
       <c r="E77" t="s">
         <v>520</v>
       </c>
+      <c r="I77" t="s">
+        <v>929</v>
+      </c>
+      <c r="J77" t="s">
+        <v>931</v>
+      </c>
+      <c r="L77" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="I78" t="s">
+        <v>930</v>
+      </c>
+      <c r="J78" t="s">
+        <v>932</v>
+      </c>
+      <c r="L78" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
@@ -9346,6 +9526,110 @@
       <c r="E90" t="s">
         <v>558</v>
       </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" t="s">
+        <v>922</v>
+      </c>
+      <c r="E92" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>924</v>
+      </c>
+      <c r="C96" t="s">
+        <v>925</v>
+      </c>
+      <c r="E96" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="42"/>
+      <c r="B98" s="42" t="s">
+        <v>944</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>927</v>
+      </c>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42" t="s">
+        <v>928</v>
+      </c>
+      <c r="F98" s="42"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="42"/>
+      <c r="B99" s="42" t="s">
+        <v>944</v>
+      </c>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42" t="s">
+        <v>940</v>
+      </c>
+      <c r="F99" s="42"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="42"/>
+      <c r="B100" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42" t="s">
+        <v>941</v>
+      </c>
+      <c r="F100" s="42"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="42"/>
+      <c r="B101" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>943</v>
+      </c>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42" t="s">
+        <v>942</v>
+      </c>
+      <c r="F101" s="42"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="B103" s="44" t="s">
+        <v>935</v>
+      </c>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44" t="s">
+        <v>936</v>
+      </c>
+      <c r="F103" s="44"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="B104" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44" t="s">
+        <v>936</v>
+      </c>
+      <c r="F104" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -10269,8 +10553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="30" customHeight="1"/>
